--- a/groups/23-24-Univers/tasks_results/23.11.28.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.11.28.xlsx
@@ -10,45 +10,60 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
+    <t>Acmp</t>
+  </si>
+  <si>
+    <t>369588</t>
   </si>
   <si>
     <t>430719</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415486</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -67,31 +82,31 @@
     <t>1081</t>
   </si>
   <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>1+, 4-</t>
   </si>
   <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
     <t>4+, 7-</t>
   </si>
   <si>
     <t>1183</t>
   </si>
   <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
     <t>1184</t>
   </si>
   <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
     <t>1+, 9-</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
   </si>
   <si>
     <t>1185</t>
@@ -480,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -530,184 +545,205 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18"/>
+  <autoFilter ref="A1:E19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId11"/>
+    <hyperlink ref="A9" r:id="rId12"/>
+    <hyperlink ref="A10" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="A15" r:id="rId18"/>
+    <hyperlink ref="A16" r:id="rId19"/>
+    <hyperlink ref="A17" r:id="rId20"/>
+    <hyperlink ref="A18" r:id="rId21"/>
+    <hyperlink ref="A19" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/tasks_results/23.11.28.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.11.28.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -97,6 +97,9 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>1+, 6-</t>
   </si>
   <si>
-    <t>1+, 9-</t>
+    <t>2+, 10-</t>
   </si>
   <si>
     <t>1185</t>
@@ -115,10 +118,16 @@
     <t>1+, 3-</t>
   </si>
   <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
     <t>1186</t>
   </si>
   <si>
     <t>1187</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
   </si>
   <si>
     <t>1188</t>
@@ -632,29 +641,29 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
@@ -662,38 +671,38 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -701,22 +710,22 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
